--- a/data/trans_orig/Q5410A_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Clase-trans_orig.xlsx
@@ -1332,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2039</v>
+        <v>2372</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09932289255278344</v>
+        <v>0.09932289255278343</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4244411898172669</v>
+        <v>0.4938026576234057</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2636</v>
+        <v>2341</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07819593766075177</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4319815557961603</v>
+        <v>0.3836303494058152</v>
       </c>
     </row>
     <row r="17">
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3681</v>
+        <v>3752</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3305939229239818</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7661659772773349</v>
+        <v>0.7811046421210708</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1434,19 +1434,19 @@
         <v>2019</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4184</v>
+        <v>4066</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3308554092324372</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07223563374217952</v>
+        <v>0.07771721802565532</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6856209753528035</v>
+        <v>0.666320095632286</v>
       </c>
     </row>
     <row r="18">
@@ -1510,19 +1510,19 @@
         <v>1847</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3908</v>
+        <v>3543</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3845674086342639</v>
+        <v>0.3845674086342638</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09363557573602529</v>
+        <v>0.09312612472341614</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8134951525124516</v>
+        <v>0.7374529575446089</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1552,19 +1552,19 @@
         <v>2228</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>660</v>
+        <v>485</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4410</v>
+        <v>4301</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.365137245272556</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1081309937394989</v>
+        <v>0.07951370351285997</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7227014408625149</v>
+        <v>0.7048681081421779</v>
       </c>
     </row>
     <row r="20">
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3146</v>
+        <v>2688</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.185515775888971</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6549584387813944</v>
+        <v>0.5594345377038092</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3799</v>
+        <v>4053</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2258114078342551</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6225873095767104</v>
+        <v>0.6642637287925927</v>
       </c>
     </row>
     <row r="21">
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1666716200223007</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5896202283915818</v>
+        <v>0.5894019415045109</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1513</v>
+        <v>1596</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07024032817588192</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3395190575584764</v>
+        <v>0.3582509633616899</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -1769,19 +1769,19 @@
         <v>1153</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3260</v>
+        <v>3165</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1214240589402261</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03095532658889718</v>
+        <v>0.03132975174622272</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3433574951525951</v>
+        <v>0.3333412157066422</v>
       </c>
     </row>
     <row r="23">
@@ -1798,19 +1798,19 @@
         <v>3209</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1136</v>
+        <v>1074</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4622</v>
+        <v>4633</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6367805192755691</v>
+        <v>0.636780519275569</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2253379745903679</v>
+        <v>0.2131708588073295</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9169764056256556</v>
+        <v>0.9192783622398677</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -1819,19 +1819,19 @@
         <v>1377</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3180</v>
+        <v>2972</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3091835848957761</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07956619073064243</v>
+        <v>0.07557185906877244</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7137195311608121</v>
+        <v>0.6670686386553829</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -1840,19 +1840,19 @@
         <v>4587</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2138</v>
+        <v>2253</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7072</v>
+        <v>6984</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4830652468279297</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.225163832590467</v>
+        <v>0.2372909779521262</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7448435385946666</v>
+        <v>0.7355286858227884</v>
       </c>
     </row>
     <row r="24">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2915</v>
+        <v>3180</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2590869298265899</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6543850139064813</v>
+        <v>0.7137724642213077</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3711</v>
+        <v>3158</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1215689581507061</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3908377200214465</v>
+        <v>0.332578920258379</v>
       </c>
     </row>
     <row r="26">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3120</v>
+        <v>3060</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1965478607021302</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.619136282649893</v>
+        <v>0.6071424068412561</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2000,19 +2000,19 @@
         <v>1610</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3093</v>
+        <v>3364</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3614891571017521</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1047422373304636</v>
+        <v>0.1031113805505989</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6941950760396896</v>
+        <v>0.7552036845970324</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -2021,19 +2021,19 @@
         <v>2601</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>927</v>
+        <v>1023</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5194</v>
+        <v>5253</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.273941736081138</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09759140774804664</v>
+        <v>0.1077869471365381</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5469904397892918</v>
+        <v>0.553244383402232</v>
       </c>
     </row>
     <row r="27">
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1710</v>
+        <v>1818</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.09512734488586159</v>
+        <v>0.09512734488586161</v>
       </c>
       <c r="H28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4753415001542615</v>
+        <v>0.5055468699178021</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -2146,19 +2146,19 @@
         <v>3212</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1261</v>
+        <v>1437</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5686</v>
+        <v>6135</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2381245292201667</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09351937257473206</v>
+        <v>0.1065584440049879</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4215237949593347</v>
+        <v>0.4548284192883316</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8</v>
@@ -2167,19 +2167,19 @@
         <v>3554</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1743</v>
+        <v>1611</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6533</v>
+        <v>6439</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2080193329666326</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1020414457140817</v>
+        <v>0.09427012686084761</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3823589751920732</v>
+        <v>0.3768386314209605</v>
       </c>
     </row>
     <row r="29">
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2718</v>
+        <v>2562</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2889841424717747</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.755609301184766</v>
+        <v>0.712332311432365</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -2217,19 +2217,19 @@
         <v>5749</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3470</v>
+        <v>2864</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8733</v>
+        <v>8501</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.4262105000847256</v>
+        <v>0.4262105000847257</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2572667882656204</v>
+        <v>0.2123438047482057</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6474343142681034</v>
+        <v>0.6302173822412895</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>12</v>
@@ -2238,19 +2238,19 @@
         <v>6789</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3882</v>
+        <v>3743</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10225</v>
+        <v>9859</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.39732023594192</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2271992416935302</v>
+        <v>0.219081697382246</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5984694540763748</v>
+        <v>0.5770381294629993</v>
       </c>
     </row>
     <row r="30">
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1831</v>
+        <v>1912</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03006149091579642</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1357276757862073</v>
+        <v>0.1417653206494694</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2081</v>
+        <v>2547</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02373264543602726</v>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.121821804428953</v>
+        <v>0.1490481355090018</v>
       </c>
     </row>
     <row r="31">
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>2167</v>
+        <v>2416</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1935823813842202</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.602311838090144</v>
+        <v>0.6715693355723705</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -2351,19 +2351,19 @@
         <v>2520</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>643</v>
+        <v>669</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5302</v>
+        <v>5495</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1867907379181187</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04767991883993248</v>
+        <v>0.04959932397199485</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3930531187039151</v>
+        <v>0.4073707465752332</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5</v>
@@ -2372,19 +2372,19 @@
         <v>3216</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1220</v>
+        <v>1272</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6355</v>
+        <v>6452</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1882205825712345</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07141459748372779</v>
+        <v>0.07447166843335866</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3719594513893871</v>
+        <v>0.377624839172382</v>
       </c>
     </row>
     <row r="32">
@@ -2401,19 +2401,19 @@
         <v>1519</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3057</v>
+        <v>2891</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4223061312581436</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1186202891361108</v>
+        <v>0.1033838848094962</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8499643887833517</v>
+        <v>0.8037035832054851</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -2422,19 +2422,19 @@
         <v>1603</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3890</v>
+        <v>3996</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1188127418611925</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02588301963463503</v>
+        <v>0.02703452366561495</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2883833268977697</v>
+        <v>0.2962585084166087</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -2443,19 +2443,19 @@
         <v>3122</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1357</v>
+        <v>1105</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5763</v>
+        <v>5972</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1827072030841857</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07945092839932406</v>
+        <v>0.06469051759368784</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3372938779005087</v>
+        <v>0.3495218265384842</v>
       </c>
     </row>
     <row r="33">
@@ -2560,19 +2560,19 @@
         <v>4866</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2189</v>
+        <v>2195</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8753</v>
+        <v>8699</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1814446794078283</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0816287615683336</v>
+        <v>0.08183803179301016</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3263633117909131</v>
+        <v>0.3243426120963572</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>8</v>
@@ -2581,19 +2581,19 @@
         <v>4866</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2215</v>
+        <v>2371</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>8958</v>
+        <v>8556</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.1770691866923804</v>
+        <v>0.1770691866923803</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08058192969447696</v>
+        <v>0.08628806227744325</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3259534826831263</v>
+        <v>0.3113267366623521</v>
       </c>
     </row>
     <row r="35">
@@ -2623,19 +2623,19 @@
         <v>6605</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3937</v>
+        <v>3732</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>10398</v>
+        <v>10495</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2462886337312259</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1468010409589677</v>
+        <v>0.1391496703360248</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3877267993591259</v>
+        <v>0.3913423554338619</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>15</v>
@@ -2644,19 +2644,19 @@
         <v>7268</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4208</v>
+        <v>4121</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>11310</v>
+        <v>11024</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.2644641933752034</v>
+        <v>0.2644641933752033</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.153118638443434</v>
+        <v>0.1499403179353404</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4115288558094325</v>
+        <v>0.4011447303246872</v>
       </c>
     </row>
     <row r="36">
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6237</v>
+        <v>5729</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06729810590380544</v>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2325492611883436</v>
+        <v>0.2136140396220301</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6198</v>
+        <v>5864</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.06567522904069452</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2255448212105058</v>
+        <v>0.2133627487363729</v>
       </c>
     </row>
     <row r="37">
@@ -2749,19 +2749,19 @@
         <v>8370</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>4778</v>
+        <v>4555</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>13691</v>
+        <v>13165</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3120902015452515</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1781589849809222</v>
+        <v>0.1698327668798947</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5105098196558649</v>
+        <v>0.4908739754618907</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>11</v>
@@ -2770,19 +2770,19 @@
         <v>8370</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4306</v>
+        <v>4906</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>13050</v>
+        <v>13277</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3045642249893084</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1566845387082031</v>
+        <v>0.1785055876952242</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4748580479094316</v>
+        <v>0.4831337684262561</v>
       </c>
     </row>
     <row r="38">
@@ -2812,19 +2812,19 @@
         <v>5173</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2603</v>
+        <v>2516</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>9087</v>
+        <v>9001</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1928783794118888</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.09704917330269201</v>
+        <v>0.09381892956995305</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3388151016638128</v>
+        <v>0.3356386107009626</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>9</v>
@@ -2833,19 +2833,19 @@
         <v>5173</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2430</v>
+        <v>2519</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>9024</v>
+        <v>9175</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1882271659024135</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08843801066509165</v>
+        <v>0.09165554284895594</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3283723275988684</v>
+        <v>0.3338573838434165</v>
       </c>
     </row>
     <row r="39">
@@ -2937,19 +2937,19 @@
         <v>1659</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3942</v>
+        <v>3846</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1123677647448304</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03068072823634701</v>
+        <v>0.03114153269671733</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2669506496534735</v>
+        <v>0.2604765107522403</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>16</v>
@@ -2958,19 +2958,19 @@
         <v>8391</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>5110</v>
+        <v>4980</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>12698</v>
+        <v>13078</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1772076500610974</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1079255213109347</v>
+        <v>0.1051774473368052</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2681545116949612</v>
+        <v>0.2761875852497174</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>20</v>
@@ -2979,19 +2979,19 @@
         <v>10050</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6551</v>
+        <v>6145</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>15507</v>
+        <v>15064</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1617937349110152</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1054621900884861</v>
+        <v>0.098927307092113</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2496372020291359</v>
+        <v>0.242497561509101</v>
       </c>
     </row>
     <row r="41">
@@ -3008,19 +3008,19 @@
         <v>6500</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3385</v>
+        <v>3596</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>9482</v>
+        <v>9652</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4401492183300303</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2292356732096642</v>
+        <v>0.2435208822955336</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.6421184077193582</v>
+        <v>0.6536396153951642</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>28</v>
@@ -3029,19 +3029,19 @@
         <v>14163</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>9629</v>
+        <v>9468</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>19048</v>
+        <v>19335</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2990904299390438</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2033457854336364</v>
+        <v>0.1999445857258669</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.4022673226927945</v>
+        <v>0.4083191475823811</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>37</v>
@@ -3050,19 +3050,19 @@
         <v>20662</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>15411</v>
+        <v>14929</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>26805</v>
+        <v>27063</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3326233115107295</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2480863362090534</v>
+        <v>0.2403216985296289</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4315154597228214</v>
+        <v>0.4356629347163599</v>
       </c>
     </row>
     <row r="42">
@@ -3092,19 +3092,19 @@
         <v>2210</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>6759</v>
+        <v>6853</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04667939504220842</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.009112756437644195</v>
+        <v>0.008647047532073225</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1427415612818623</v>
+        <v>0.1447344468456234</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3</v>
@@ -3113,19 +3113,19 @@
         <v>2210</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>412</v>
+        <v>558</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>7257</v>
+        <v>7003</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03558264138621053</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.006625960760006128</v>
+        <v>0.008989258205879386</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1168310358072176</v>
+        <v>0.1127303005725507</v>
       </c>
     </row>
     <row r="43">
@@ -3142,19 +3142,19 @@
         <v>2544</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>5181</v>
+        <v>5461</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1722636091485971</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04544904512568962</v>
+        <v>0.04495277409806875</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.350877400060776</v>
+        <v>0.3698282069793776</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>18</v>
@@ -3163,19 +3163,19 @@
         <v>12424</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>7969</v>
+        <v>7634</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>18034</v>
+        <v>18232</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2623851983250975</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1683014274783376</v>
+        <v>0.1612153488362398</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3808431377434</v>
+        <v>0.3850367997220994</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>22</v>
@@ -3184,19 +3184,19 @@
         <v>14968</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>9942</v>
+        <v>9894</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>22348</v>
+        <v>21515</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2409612472804364</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1600450731555552</v>
+        <v>0.1592743775014278</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3597684072168633</v>
+        <v>0.3463518897566183</v>
       </c>
     </row>
     <row r="44">
@@ -3213,19 +3213,19 @@
         <v>4064</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2068</v>
+        <v>1691</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>7471</v>
+        <v>7128</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2752194077765422</v>
+        <v>0.2752194077765421</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1400574618020832</v>
+        <v>0.114539632231052</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.5059471244307838</v>
+        <v>0.4827014164094551</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>18</v>
@@ -3234,19 +3234,19 @@
         <v>10164</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>6581</v>
+        <v>6510</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>14930</v>
+        <v>15167</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2146373266325527</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1389764221352889</v>
+        <v>0.137482653443179</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3153001973777188</v>
+        <v>0.3203109930076976</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>25</v>
@@ -3255,19 +3255,19 @@
         <v>14228</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>9428</v>
+        <v>9958</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>19467</v>
+        <v>20318</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2290390649116082</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1517758667561281</v>
+        <v>0.1603117500213415</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3133744928809684</v>
+        <v>0.3270817373403652</v>
       </c>
     </row>
     <row r="45">
